--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/1.NhanBH/NBH210701_NgocKimAnh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/1.NhanBH/NBH210701_NgocKimAnh.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="24">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -930,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1048,7 +1048,7 @@
       <c r="D10" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="21" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="21" t="s">
@@ -1062,9 +1062,13 @@
       <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="17">
+        <v>868183037842288</v>
+      </c>
       <c r="D11" s="21"/>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="F11" s="21"/>
     </row>
     <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1074,9 +1078,13 @@
       <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="20"/>
+      <c r="C12" s="17">
+        <v>868183035948004</v>
+      </c>
       <c r="D12" s="21"/>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="F12" s="21"/>
     </row>
     <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1086,9 +1094,13 @@
       <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="20"/>
+      <c r="C13" s="17">
+        <v>867717030416979</v>
+      </c>
       <c r="D13" s="21"/>
-      <c r="E13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1098,9 +1110,13 @@
       <c r="B14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="20"/>
+      <c r="C14" s="17">
+        <v>868183038085382</v>
+      </c>
       <c r="D14" s="21"/>
-      <c r="E14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1110,9 +1126,13 @@
       <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="17">
+        <v>868183033816146</v>
+      </c>
       <c r="D15" s="21"/>
-      <c r="E15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="F15" s="21"/>
     </row>
     <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1122,9 +1142,13 @@
       <c r="B16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="17">
+        <v>868183033820213</v>
+      </c>
       <c r="D16" s="21"/>
-      <c r="E16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1134,9 +1158,13 @@
       <c r="B17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="20"/>
+      <c r="C17" s="17">
+        <v>860157040224971</v>
+      </c>
       <c r="D17" s="21"/>
-      <c r="E17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1146,9 +1174,13 @@
       <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="17">
+        <v>868183035860043</v>
+      </c>
       <c r="D18" s="21"/>
-      <c r="E18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="F18" s="21"/>
     </row>
     <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1158,9 +1190,13 @@
       <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="20"/>
+      <c r="C19" s="17">
+        <v>867857039898429</v>
+      </c>
       <c r="D19" s="21"/>
-      <c r="E19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="F19" s="21"/>
     </row>
     <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1170,9 +1206,13 @@
       <c r="B20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="20"/>
+      <c r="C20" s="17">
+        <v>867717030626494</v>
+      </c>
       <c r="D20" s="21"/>
-      <c r="E20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="F20" s="21"/>
     </row>
     <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1182,9 +1222,13 @@
       <c r="B21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="20"/>
+      <c r="C21" s="17">
+        <v>868183034540026</v>
+      </c>
       <c r="D21" s="21"/>
-      <c r="E21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="F21" s="21"/>
     </row>
     <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1194,9 +1238,13 @@
       <c r="B22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="20"/>
+      <c r="C22" s="17">
+        <v>868183037833295</v>
+      </c>
       <c r="D22" s="21"/>
-      <c r="E22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="F22" s="21"/>
     </row>
     <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1206,9 +1254,13 @@
       <c r="B23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="20"/>
+      <c r="C23" s="17">
+        <v>867717030433966</v>
+      </c>
       <c r="D23" s="21"/>
-      <c r="E23" s="4"/>
+      <c r="E23" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="F23" s="21"/>
     </row>
     <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1218,9 +1270,13 @@
       <c r="B24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="20"/>
+      <c r="C24" s="17">
+        <v>868183034602347</v>
+      </c>
       <c r="D24" s="21"/>
-      <c r="E24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="F24" s="21"/>
     </row>
     <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1230,9 +1286,13 @@
       <c r="B25" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="20"/>
+      <c r="C25" s="17">
+        <v>868183034726013</v>
+      </c>
       <c r="D25" s="21"/>
-      <c r="E25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1240,11 +1300,15 @@
         <v>16</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="20"/>
+        <v>19</v>
+      </c>
+      <c r="C26" s="17">
+        <v>868183035899876</v>
+      </c>
       <c r="D26" s="21"/>
-      <c r="E26" s="4"/>
+      <c r="E26" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="F26" s="21"/>
     </row>
     <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1252,11 +1316,15 @@
         <v>17</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="20"/>
+        <v>19</v>
+      </c>
+      <c r="C27" s="17">
+        <v>868183034558358</v>
+      </c>
       <c r="D27" s="21"/>
-      <c r="E27" s="4"/>
+      <c r="E27" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="F27" s="21"/>
     </row>
     <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1264,11 +1332,15 @@
         <v>18</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="20"/>
+        <v>19</v>
+      </c>
+      <c r="C28" s="17">
+        <v>868183034541818</v>
+      </c>
       <c r="D28" s="21"/>
-      <c r="E28" s="4"/>
+      <c r="E28" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="F28" s="21"/>
     </row>
     <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1278,9 +1350,13 @@
       <c r="B29" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="20"/>
+      <c r="C29" s="17">
+        <v>862631034745553</v>
+      </c>
       <c r="D29" s="21"/>
-      <c r="E29" s="4"/>
+      <c r="E29" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1290,9 +1366,13 @@
       <c r="B30" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="20"/>
+      <c r="C30" s="17">
+        <v>862631034710839</v>
+      </c>
       <c r="D30" s="21"/>
-      <c r="E30" s="4"/>
+      <c r="E30" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F30" s="21"/>
     </row>
     <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1302,9 +1382,13 @@
       <c r="B31" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="20"/>
+      <c r="C31" s="17">
+        <v>861694030874190</v>
+      </c>
       <c r="D31" s="21"/>
-      <c r="E31" s="4"/>
+      <c r="E31" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F31" s="21"/>
     </row>
     <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1314,9 +1398,13 @@
       <c r="B32" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="20"/>
+      <c r="C32" s="17">
+        <v>861694031763368</v>
+      </c>
       <c r="D32" s="21"/>
-      <c r="E32" s="4"/>
+      <c r="E32" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1326,9 +1414,13 @@
       <c r="B33" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="20"/>
+      <c r="C33" s="17">
+        <v>861694031764507</v>
+      </c>
       <c r="D33" s="21"/>
-      <c r="E33" s="4"/>
+      <c r="E33" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1338,9 +1430,13 @@
       <c r="B34" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="20"/>
+      <c r="C34" s="17">
+        <v>863586034539290</v>
+      </c>
       <c r="D34" s="21"/>
-      <c r="E34" s="4"/>
+      <c r="E34" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1350,9 +1446,13 @@
       <c r="B35" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="20"/>
+      <c r="C35" s="17">
+        <v>861694031781485</v>
+      </c>
       <c r="D35" s="21"/>
-      <c r="E35" s="4"/>
+      <c r="E35" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1362,7 +1462,9 @@
       <c r="B36" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="26"/>
+      <c r="C36" s="26">
+        <v>864811037283236</v>
+      </c>
       <c r="D36" s="21"/>
       <c r="E36" s="4" t="s">
         <v>17</v>
@@ -1376,10 +1478,12 @@
       <c r="B37" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="26"/>
+      <c r="C37" s="26">
+        <v>291220008</v>
+      </c>
       <c r="D37" s="21"/>
       <c r="E37" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F37" s="21"/>
     </row>
